--- a/游戏开发文档/位置联动示意图.xlsx
+++ b/游戏开发文档/位置联动示意图.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Klin\OneDrive\Desktop\workspace\game_design\project2_Demo\Time_Guardian\Time Guardian\游戏开发文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6f1114f2e9e71934/Desktop/workspace/game_design/project2_Demo/Time_Guardian/Time Guardian/游戏开发文档/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7413BEFB-B6B1-4453-B325-83D512CC187A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{7413BEFB-B6B1-4453-B325-83D512CC187A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEBD2636-0893-4BC4-888E-7BC0B24F2CED}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="字母" sheetId="2" r:id="rId1"/>
-    <sheet name="小型联动" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="字母(废弃)" sheetId="2" r:id="rId2"/>
+    <sheet name="小型联动(废弃)" sheetId="3" r:id="rId3"/>
+    <sheet name="技能效果" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -1486,11 +1487,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A8F23BC-B9D2-4879-B57E-03A4568C2438}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BG28"/>
+  <dimension ref="A1:BM78"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX8" sqref="AX8"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="BW50" sqref="BW50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.58203125" defaultRowHeight="27.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2275,7 +2290,7 @@
       <c r="H16" s="6"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -2286,7 +2301,7 @@
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="5"/>
@@ -2297,7 +2312,7 @@
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2308,7 +2323,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="5"/>
@@ -2319,7 +2334,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2330,7 +2345,7 @@
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="5"/>
@@ -2341,7 +2356,7 @@
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2352,7 +2367,7 @@
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="5"/>
@@ -2363,7 +2378,7 @@
       <c r="H24" s="6"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2374,7 +2389,7 @@
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
     </row>
-    <row r="26" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="5"/>
@@ -2385,7 +2400,7 @@
       <c r="H26" s="6"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2396,7 +2411,7 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="5"/>
@@ -2407,383 +2422,7 @@
       <c r="H28" s="6"/>
       <c r="I28" s="5"/>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F291FDB3-EB63-43F8-9B77-CA56B866C6F3}">
-  <dimension ref="A1:BN158"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AJ32" sqref="AJ32"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.58203125" defaultRowHeight="27.5" customHeight="1" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="16384" width="4.58203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="5"/>
-    </row>
-    <row r="2" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="5"/>
-    </row>
-    <row r="3" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-    </row>
-    <row r="4" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-    </row>
-    <row r="6" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="G7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="5"/>
-      <c r="J9" s="8"/>
-    </row>
-    <row r="10" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-    </row>
-    <row r="13" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
-    </row>
-    <row r="19" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="5"/>
-    </row>
-    <row r="20" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-    </row>
-    <row r="21" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="5"/>
-    </row>
-    <row r="22" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-    </row>
-    <row r="23" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="5"/>
-    </row>
-    <row r="26" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="6"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="6"/>
-      <c r="AC26" s="5"/>
-    </row>
-    <row r="27" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
-      <c r="AA27" s="6"/>
-      <c r="AB27" s="6"/>
-      <c r="AC27" s="6"/>
-    </row>
-    <row r="28" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="6"/>
-      <c r="AC28" s="5"/>
-    </row>
-    <row r="29" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
-      <c r="AA29" s="6"/>
-      <c r="AB29" s="6"/>
-      <c r="AC29" s="6"/>
-    </row>
-    <row r="30" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="5"/>
@@ -2793,93 +2432,333 @@
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
       <c r="I30" s="5"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="5"/>
       <c r="L30" s="6"/>
       <c r="M30" s="7"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="5"/>
+      <c r="O30" s="7"/>
       <c r="P30" s="6"/>
-      <c r="Q30" s="5"/>
+      <c r="Q30" s="7"/>
       <c r="R30" s="6"/>
       <c r="S30" s="5"/>
+      <c r="T30" s="6"/>
       <c r="U30" s="5"/>
       <c r="V30" s="6"/>
-      <c r="W30" s="7"/>
+      <c r="W30" s="5"/>
       <c r="X30" s="6"/>
       <c r="Y30" s="5"/>
       <c r="Z30" s="6"/>
       <c r="AA30" s="5"/>
       <c r="AB30" s="6"/>
       <c r="AC30" s="5"/>
-    </row>
-    <row r="34" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="7"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="7"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="6"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="6"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="6"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="6"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="6"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="6"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="6"/>
-      <c r="AZ34" s="5"/>
-      <c r="BA34" s="6"/>
-      <c r="BB34" s="5"/>
-      <c r="BC34" s="6"/>
-      <c r="BD34" s="5"/>
-      <c r="BE34" s="6"/>
-      <c r="BF34" s="5"/>
-      <c r="BG34" s="6"/>
-      <c r="BH34" s="5"/>
-      <c r="BI34" s="6"/>
-      <c r="BJ34" s="5"/>
-      <c r="BK34" s="6"/>
-      <c r="BL34" s="5"/>
-      <c r="BM34" s="6"/>
-      <c r="BN34" s="5"/>
-    </row>
-    <row r="35" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AD30" s="6"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="6"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="6"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="6"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="6"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="6"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="6"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="5"/>
+      <c r="AT30" s="6"/>
+      <c r="AU30" s="5"/>
+      <c r="AV30" s="6"/>
+      <c r="AW30" s="5"/>
+      <c r="AX30" s="6"/>
+      <c r="AY30" s="5"/>
+      <c r="AZ30" s="6"/>
+      <c r="BA30" s="5"/>
+      <c r="BB30" s="6"/>
+      <c r="BC30" s="5"/>
+      <c r="BD30" s="6"/>
+      <c r="BE30" s="5"/>
+      <c r="BF30" s="6"/>
+      <c r="BG30" s="5"/>
+      <c r="BH30" s="6"/>
+      <c r="BI30" s="5"/>
+      <c r="BJ30" s="6"/>
+      <c r="BK30" s="5"/>
+      <c r="BL30" s="6"/>
+      <c r="BM30" s="5"/>
+    </row>
+    <row r="31" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
+      <c r="AD31" s="6"/>
+      <c r="AE31" s="6"/>
+      <c r="AF31" s="6"/>
+      <c r="AG31" s="6"/>
+      <c r="AH31" s="6"/>
+      <c r="AI31" s="6"/>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" s="6"/>
+      <c r="AL31" s="6"/>
+      <c r="AM31" s="6"/>
+      <c r="AN31" s="6"/>
+      <c r="AO31" s="6"/>
+      <c r="AP31" s="6"/>
+      <c r="AQ31" s="6"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="6"/>
+      <c r="AT31" s="6"/>
+      <c r="AU31" s="6"/>
+      <c r="AV31" s="6"/>
+      <c r="AW31" s="6"/>
+      <c r="AX31" s="6"/>
+      <c r="AY31" s="6"/>
+      <c r="AZ31" s="6"/>
+      <c r="BA31" s="6"/>
+      <c r="BB31" s="6"/>
+      <c r="BC31" s="6"/>
+      <c r="BD31" s="6"/>
+      <c r="BE31" s="6"/>
+      <c r="BF31" s="6"/>
+      <c r="BG31" s="6"/>
+      <c r="BH31" s="6"/>
+      <c r="BI31" s="6"/>
+      <c r="BJ31" s="6"/>
+      <c r="BK31" s="6"/>
+      <c r="BL31" s="6"/>
+      <c r="BM31" s="6"/>
+    </row>
+    <row r="32" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="5"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="6"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="6"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="6"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="6"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="6"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="6"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="6"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="5"/>
+      <c r="AT32" s="6"/>
+      <c r="AU32" s="5"/>
+      <c r="AV32" s="6"/>
+      <c r="AW32" s="5"/>
+      <c r="AX32" s="6"/>
+      <c r="AY32" s="5"/>
+      <c r="AZ32" s="6"/>
+      <c r="BA32" s="5"/>
+      <c r="BB32" s="6"/>
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="6"/>
+      <c r="BE32" s="5"/>
+      <c r="BF32" s="6"/>
+      <c r="BG32" s="5"/>
+      <c r="BH32" s="6"/>
+      <c r="BI32" s="5"/>
+      <c r="BJ32" s="6"/>
+      <c r="BK32" s="5"/>
+      <c r="BL32" s="6"/>
+      <c r="BM32" s="5"/>
+    </row>
+    <row r="33" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
+      <c r="AD33" s="6"/>
+      <c r="AE33" s="6"/>
+      <c r="AF33" s="6"/>
+      <c r="AG33" s="6"/>
+      <c r="AH33" s="6"/>
+      <c r="AI33" s="6"/>
+      <c r="AJ33" s="6"/>
+      <c r="AK33" s="6"/>
+      <c r="AL33" s="6"/>
+      <c r="AM33" s="6"/>
+      <c r="AN33" s="6"/>
+      <c r="AO33" s="6"/>
+      <c r="AP33" s="6"/>
+      <c r="AQ33" s="6"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="6"/>
+      <c r="AT33" s="6"/>
+      <c r="AU33" s="6"/>
+      <c r="AV33" s="6"/>
+      <c r="AW33" s="6"/>
+      <c r="AX33" s="6"/>
+      <c r="AY33" s="6"/>
+      <c r="AZ33" s="6"/>
+      <c r="BA33" s="6"/>
+      <c r="BB33" s="6"/>
+      <c r="BC33" s="6"/>
+      <c r="BD33" s="6"/>
+      <c r="BE33" s="6"/>
+      <c r="BF33" s="6"/>
+      <c r="BG33" s="6"/>
+      <c r="BH33" s="6"/>
+      <c r="BI33" s="6"/>
+      <c r="BJ33" s="6"/>
+      <c r="BK33" s="6"/>
+      <c r="BL33" s="6"/>
+      <c r="BM33" s="6"/>
+    </row>
+    <row r="34" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="6"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="6"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="6"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="6"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="6"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="6"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="6"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="6"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="6"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="6"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="6"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="6"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="6"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="6"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="6"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="6"/>
+      <c r="BK34" s="5"/>
+      <c r="BL34" s="6"/>
+      <c r="BM34" s="5"/>
+    </row>
+    <row r="35" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -2944,76 +2823,76 @@
       <c r="BK35" s="6"/>
       <c r="BL35" s="6"/>
       <c r="BM35" s="6"/>
-      <c r="BN35" s="6"/>
-    </row>
-    <row r="36" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="5"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="7"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="7"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="5"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="5"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="5"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="5"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="5"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="5"/>
-      <c r="AQ36" s="6"/>
-      <c r="AR36" s="5"/>
-      <c r="AS36" s="6"/>
-      <c r="AT36" s="5"/>
-      <c r="AU36" s="6"/>
-      <c r="AV36" s="5"/>
-      <c r="AW36" s="6"/>
-      <c r="AX36" s="5"/>
-      <c r="AY36" s="6"/>
-      <c r="AZ36" s="5"/>
-      <c r="BA36" s="6"/>
-      <c r="BB36" s="5"/>
-      <c r="BC36" s="6"/>
-      <c r="BD36" s="5"/>
-      <c r="BE36" s="6"/>
-      <c r="BF36" s="5"/>
-      <c r="BG36" s="6"/>
-      <c r="BH36" s="5"/>
-      <c r="BI36" s="6"/>
-      <c r="BJ36" s="5"/>
-      <c r="BK36" s="6"/>
-      <c r="BL36" s="5"/>
-      <c r="BM36" s="6"/>
-      <c r="BN36" s="5"/>
-    </row>
-    <row r="37" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="6"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="6"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="6"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="6"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="6"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="6"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="6"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="6"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="6"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="6"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="6"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="6"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="6"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="6"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="6"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="6"/>
+      <c r="BI36" s="5"/>
+      <c r="BJ36" s="6"/>
+      <c r="BK36" s="5"/>
+      <c r="BL36" s="6"/>
+      <c r="BM36" s="5"/>
+    </row>
+    <row r="37" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
@@ -3078,76 +2957,76 @@
       <c r="BK37" s="6"/>
       <c r="BL37" s="6"/>
       <c r="BM37" s="6"/>
-      <c r="BN37" s="6"/>
-    </row>
-    <row r="38" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="7"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="7"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="5"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="5"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="5"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="5"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="5"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="5"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="5"/>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="5"/>
-      <c r="AQ38" s="6"/>
-      <c r="AR38" s="5"/>
-      <c r="AS38" s="6"/>
-      <c r="AT38" s="5"/>
-      <c r="AU38" s="6"/>
-      <c r="AV38" s="5"/>
-      <c r="AW38" s="6"/>
-      <c r="AX38" s="5"/>
-      <c r="AY38" s="6"/>
-      <c r="AZ38" s="5"/>
-      <c r="BA38" s="6"/>
-      <c r="BB38" s="5"/>
-      <c r="BC38" s="6"/>
-      <c r="BD38" s="5"/>
-      <c r="BE38" s="6"/>
-      <c r="BF38" s="5"/>
-      <c r="BG38" s="6"/>
-      <c r="BH38" s="5"/>
-      <c r="BI38" s="6"/>
-      <c r="BJ38" s="5"/>
-      <c r="BK38" s="6"/>
-      <c r="BL38" s="5"/>
-      <c r="BM38" s="6"/>
-      <c r="BN38" s="5"/>
-    </row>
-    <row r="39" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="5"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="6"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" s="5"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="5"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="5"/>
+      <c r="AP38" s="6"/>
+      <c r="AQ38" s="5"/>
+      <c r="AR38" s="6"/>
+      <c r="AS38" s="5"/>
+      <c r="AT38" s="6"/>
+      <c r="AU38" s="5"/>
+      <c r="AV38" s="6"/>
+      <c r="AW38" s="5"/>
+      <c r="AX38" s="6"/>
+      <c r="AY38" s="5"/>
+      <c r="AZ38" s="6"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="6"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="6"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="6"/>
+      <c r="BG38" s="5"/>
+      <c r="BH38" s="6"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="6"/>
+      <c r="BK38" s="5"/>
+      <c r="BL38" s="6"/>
+      <c r="BM38" s="5"/>
+    </row>
+    <row r="39" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
@@ -3212,76 +3091,76 @@
       <c r="BK39" s="6"/>
       <c r="BL39" s="6"/>
       <c r="BM39" s="6"/>
-      <c r="BN39" s="6"/>
-    </row>
-    <row r="40" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="7"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="5"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="5"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="5"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="5"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="5"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="5"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="5"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="5"/>
-      <c r="AO40" s="6"/>
-      <c r="AP40" s="5"/>
-      <c r="AQ40" s="6"/>
-      <c r="AR40" s="5"/>
-      <c r="AS40" s="6"/>
-      <c r="AT40" s="5"/>
-      <c r="AU40" s="6"/>
-      <c r="AV40" s="5"/>
-      <c r="AW40" s="6"/>
-      <c r="AX40" s="5"/>
-      <c r="AY40" s="6"/>
-      <c r="AZ40" s="5"/>
-      <c r="BA40" s="6"/>
-      <c r="BB40" s="5"/>
-      <c r="BC40" s="6"/>
-      <c r="BD40" s="5"/>
-      <c r="BE40" s="6"/>
-      <c r="BF40" s="5"/>
-      <c r="BG40" s="6"/>
-      <c r="BH40" s="5"/>
-      <c r="BI40" s="6"/>
-      <c r="BJ40" s="5"/>
-      <c r="BK40" s="6"/>
-      <c r="BL40" s="5"/>
-      <c r="BM40" s="6"/>
-      <c r="BN40" s="5"/>
-    </row>
-    <row r="41" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="6"/>
+      <c r="AE40" s="5"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="6"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="6"/>
+      <c r="AK40" s="5"/>
+      <c r="AL40" s="6"/>
+      <c r="AM40" s="5"/>
+      <c r="AN40" s="6"/>
+      <c r="AO40" s="5"/>
+      <c r="AP40" s="6"/>
+      <c r="AQ40" s="5"/>
+      <c r="AR40" s="6"/>
+      <c r="AS40" s="5"/>
+      <c r="AT40" s="6"/>
+      <c r="AU40" s="5"/>
+      <c r="AV40" s="6"/>
+      <c r="AW40" s="5"/>
+      <c r="AX40" s="6"/>
+      <c r="AY40" s="5"/>
+      <c r="AZ40" s="6"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="6"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="6"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="6"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="6"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="6"/>
+      <c r="BK40" s="5"/>
+      <c r="BL40" s="6"/>
+      <c r="BM40" s="5"/>
+    </row>
+    <row r="41" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -3346,76 +3225,76 @@
       <c r="BK41" s="6"/>
       <c r="BL41" s="6"/>
       <c r="BM41" s="6"/>
-      <c r="BN41" s="6"/>
-    </row>
-    <row r="42" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="7"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="5"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="6"/>
-      <c r="AB42" s="7"/>
-      <c r="AC42" s="6"/>
-      <c r="AD42" s="7"/>
-      <c r="AE42" s="6"/>
-      <c r="AF42" s="7"/>
-      <c r="AG42" s="6"/>
-      <c r="AH42" s="7"/>
-      <c r="AI42" s="6"/>
-      <c r="AJ42" s="7"/>
-      <c r="AK42" s="6"/>
-      <c r="AL42" s="5"/>
-      <c r="AM42" s="6"/>
-      <c r="AN42" s="5"/>
-      <c r="AO42" s="6"/>
-      <c r="AP42" s="5"/>
-      <c r="AQ42" s="6"/>
-      <c r="AR42" s="5"/>
-      <c r="AS42" s="6"/>
-      <c r="AT42" s="5"/>
-      <c r="AU42" s="6"/>
-      <c r="AV42" s="5"/>
-      <c r="AW42" s="6"/>
-      <c r="AX42" s="5"/>
-      <c r="AY42" s="6"/>
-      <c r="AZ42" s="5"/>
-      <c r="BA42" s="6"/>
-      <c r="BB42" s="5"/>
-      <c r="BC42" s="6"/>
-      <c r="BD42" s="5"/>
-      <c r="BE42" s="6"/>
-      <c r="BF42" s="5"/>
-      <c r="BG42" s="6"/>
-      <c r="BH42" s="5"/>
-      <c r="BI42" s="6"/>
-      <c r="BJ42" s="5"/>
-      <c r="BK42" s="6"/>
-      <c r="BL42" s="5"/>
-      <c r="BM42" s="6"/>
-      <c r="BN42" s="5"/>
-    </row>
-    <row r="43" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="5"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="6"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="6"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="6"/>
+      <c r="AK42" s="5"/>
+      <c r="AL42" s="6"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="6"/>
+      <c r="AO42" s="5"/>
+      <c r="AP42" s="6"/>
+      <c r="AQ42" s="5"/>
+      <c r="AR42" s="6"/>
+      <c r="AS42" s="5"/>
+      <c r="AT42" s="6"/>
+      <c r="AU42" s="5"/>
+      <c r="AV42" s="6"/>
+      <c r="AW42" s="5"/>
+      <c r="AX42" s="6"/>
+      <c r="AY42" s="5"/>
+      <c r="AZ42" s="6"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="6"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="6"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="6"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="6"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="6"/>
+      <c r="BK42" s="5"/>
+      <c r="BL42" s="6"/>
+      <c r="BM42" s="5"/>
+    </row>
+    <row r="43" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -3480,76 +3359,76 @@
       <c r="BK43" s="6"/>
       <c r="BL43" s="6"/>
       <c r="BM43" s="6"/>
-      <c r="BN43" s="6"/>
-    </row>
-    <row r="44" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="7"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="6"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="6"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="6"/>
-      <c r="AF44" s="5"/>
-      <c r="AG44" s="6"/>
-      <c r="AH44" s="5"/>
-      <c r="AI44" s="6"/>
-      <c r="AJ44" s="7"/>
-      <c r="AK44" s="6"/>
-      <c r="AL44" s="5"/>
-      <c r="AM44" s="6"/>
-      <c r="AN44" s="5"/>
-      <c r="AO44" s="6"/>
-      <c r="AP44" s="5"/>
-      <c r="AQ44" s="6"/>
-      <c r="AR44" s="5"/>
-      <c r="AS44" s="6"/>
-      <c r="AT44" s="5"/>
-      <c r="AU44" s="6"/>
-      <c r="AV44" s="5"/>
-      <c r="AW44" s="6"/>
-      <c r="AX44" s="5"/>
-      <c r="AY44" s="6"/>
-      <c r="AZ44" s="5"/>
-      <c r="BA44" s="6"/>
-      <c r="BB44" s="5"/>
-      <c r="BC44" s="6"/>
-      <c r="BD44" s="5"/>
-      <c r="BE44" s="6"/>
-      <c r="BF44" s="5"/>
-      <c r="BG44" s="6"/>
-      <c r="BH44" s="5"/>
-      <c r="BI44" s="6"/>
-      <c r="BJ44" s="5"/>
-      <c r="BK44" s="6"/>
-      <c r="BL44" s="5"/>
-      <c r="BM44" s="6"/>
-      <c r="BN44" s="5"/>
-    </row>
-    <row r="45" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="5"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="6"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="6"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="6"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="6"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="6"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="6"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="6"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="6"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="6"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="6"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="6"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="6"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="6"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="6"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="6"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="6"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="6"/>
+      <c r="BM44" s="5"/>
+    </row>
+    <row r="45" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -3614,76 +3493,76 @@
       <c r="BK45" s="6"/>
       <c r="BL45" s="6"/>
       <c r="BM45" s="6"/>
-      <c r="BN45" s="6"/>
-    </row>
-    <row r="46" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="7"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="7"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="7"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="5"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="6"/>
-      <c r="AB46" s="7"/>
-      <c r="AC46" s="6"/>
-      <c r="AD46" s="7"/>
-      <c r="AE46" s="6"/>
-      <c r="AF46" s="7"/>
-      <c r="AG46" s="6"/>
-      <c r="AH46" s="7"/>
-      <c r="AI46" s="6"/>
-      <c r="AJ46" s="7"/>
-      <c r="AK46" s="6"/>
-      <c r="AL46" s="5"/>
-      <c r="AM46" s="6"/>
-      <c r="AN46" s="5"/>
-      <c r="AO46" s="6"/>
-      <c r="AP46" s="5"/>
-      <c r="AQ46" s="6"/>
-      <c r="AR46" s="5"/>
-      <c r="AS46" s="6"/>
-      <c r="AT46" s="5"/>
-      <c r="AU46" s="6"/>
-      <c r="AV46" s="5"/>
-      <c r="AW46" s="6"/>
-      <c r="AX46" s="5"/>
-      <c r="AY46" s="6"/>
-      <c r="AZ46" s="5"/>
-      <c r="BA46" s="6"/>
-      <c r="BB46" s="5"/>
-      <c r="BC46" s="6"/>
-      <c r="BD46" s="5"/>
-      <c r="BE46" s="6"/>
-      <c r="BF46" s="5"/>
-      <c r="BG46" s="6"/>
-      <c r="BH46" s="5"/>
-      <c r="BI46" s="6"/>
-      <c r="BJ46" s="5"/>
-      <c r="BK46" s="6"/>
-      <c r="BL46" s="5"/>
-      <c r="BM46" s="6"/>
-      <c r="BN46" s="5"/>
-    </row>
-    <row r="47" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="5"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="5"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="5"/>
+      <c r="AD46" s="6"/>
+      <c r="AE46" s="5"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="6"/>
+      <c r="AK46" s="5"/>
+      <c r="AL46" s="6"/>
+      <c r="AM46" s="5"/>
+      <c r="AN46" s="6"/>
+      <c r="AO46" s="5"/>
+      <c r="AP46" s="6"/>
+      <c r="AQ46" s="5"/>
+      <c r="AR46" s="6"/>
+      <c r="AS46" s="5"/>
+      <c r="AT46" s="6"/>
+      <c r="AU46" s="5"/>
+      <c r="AV46" s="6"/>
+      <c r="AW46" s="5"/>
+      <c r="AX46" s="6"/>
+      <c r="AY46" s="5"/>
+      <c r="AZ46" s="6"/>
+      <c r="BA46" s="5"/>
+      <c r="BB46" s="6"/>
+      <c r="BC46" s="5"/>
+      <c r="BD46" s="6"/>
+      <c r="BE46" s="5"/>
+      <c r="BF46" s="6"/>
+      <c r="BG46" s="5"/>
+      <c r="BH46" s="6"/>
+      <c r="BI46" s="5"/>
+      <c r="BJ46" s="6"/>
+      <c r="BK46" s="5"/>
+      <c r="BL46" s="6"/>
+      <c r="BM46" s="5"/>
+    </row>
+    <row r="47" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -3748,76 +3627,76 @@
       <c r="BK47" s="6"/>
       <c r="BL47" s="6"/>
       <c r="BM47" s="6"/>
-      <c r="BN47" s="6"/>
-    </row>
-    <row r="48" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="7"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="7"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="5"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="6"/>
-      <c r="AB48" s="5"/>
-      <c r="AC48" s="6"/>
-      <c r="AD48" s="7"/>
-      <c r="AE48" s="6"/>
-      <c r="AF48" s="7"/>
-      <c r="AG48" s="6"/>
-      <c r="AH48" s="7"/>
-      <c r="AI48" s="6"/>
-      <c r="AJ48" s="7"/>
-      <c r="AK48" s="6"/>
-      <c r="AL48" s="5"/>
-      <c r="AM48" s="6"/>
-      <c r="AN48" s="5"/>
-      <c r="AO48" s="6"/>
-      <c r="AP48" s="5"/>
-      <c r="AQ48" s="6"/>
-      <c r="AR48" s="5"/>
-      <c r="AS48" s="6"/>
-      <c r="AT48" s="5"/>
-      <c r="AU48" s="6"/>
-      <c r="AV48" s="5"/>
-      <c r="AW48" s="6"/>
-      <c r="AX48" s="5"/>
-      <c r="AY48" s="6"/>
-      <c r="AZ48" s="5"/>
-      <c r="BA48" s="6"/>
-      <c r="BB48" s="5"/>
-      <c r="BC48" s="6"/>
-      <c r="BD48" s="5"/>
-      <c r="BE48" s="6"/>
-      <c r="BF48" s="5"/>
-      <c r="BG48" s="6"/>
-      <c r="BH48" s="5"/>
-      <c r="BI48" s="6"/>
-      <c r="BJ48" s="5"/>
-      <c r="BK48" s="6"/>
-      <c r="BL48" s="5"/>
-      <c r="BM48" s="6"/>
-      <c r="BN48" s="5"/>
-    </row>
-    <row r="49" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="6"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="6"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="6"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="6"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="6"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="6"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="6"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="6"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="6"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="6"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="6"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="6"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="6"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="6"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="6"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="6"/>
+      <c r="BK48" s="5"/>
+      <c r="BL48" s="6"/>
+      <c r="BM48" s="5"/>
+    </row>
+    <row r="49" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -3882,76 +3761,76 @@
       <c r="BK49" s="6"/>
       <c r="BL49" s="6"/>
       <c r="BM49" s="6"/>
-      <c r="BN49" s="6"/>
-    </row>
-    <row r="50" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="7"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="7"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="5"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="5"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="5"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="6"/>
-      <c r="AB50" s="5"/>
-      <c r="AC50" s="6"/>
-      <c r="AD50" s="5"/>
-      <c r="AE50" s="6"/>
-      <c r="AF50" s="5"/>
-      <c r="AG50" s="6"/>
-      <c r="AH50" s="5"/>
-      <c r="AI50" s="6"/>
-      <c r="AJ50" s="7"/>
-      <c r="AK50" s="6"/>
-      <c r="AL50" s="5"/>
-      <c r="AM50" s="6"/>
-      <c r="AN50" s="5"/>
-      <c r="AO50" s="6"/>
-      <c r="AP50" s="5"/>
-      <c r="AQ50" s="6"/>
-      <c r="AR50" s="5"/>
-      <c r="AS50" s="6"/>
-      <c r="AT50" s="5"/>
-      <c r="AU50" s="6"/>
-      <c r="AV50" s="5"/>
-      <c r="AW50" s="6"/>
-      <c r="AX50" s="5"/>
-      <c r="AY50" s="6"/>
-      <c r="AZ50" s="5"/>
-      <c r="BA50" s="6"/>
-      <c r="BB50" s="5"/>
-      <c r="BC50" s="6"/>
-      <c r="BD50" s="5"/>
-      <c r="BE50" s="6"/>
-      <c r="BF50" s="5"/>
-      <c r="BG50" s="6"/>
-      <c r="BH50" s="5"/>
-      <c r="BI50" s="6"/>
-      <c r="BJ50" s="5"/>
-      <c r="BK50" s="6"/>
-      <c r="BL50" s="5"/>
-      <c r="BM50" s="6"/>
-      <c r="BN50" s="5"/>
-    </row>
-    <row r="51" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="5"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="5"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="5"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="5"/>
+      <c r="AD50" s="6"/>
+      <c r="AE50" s="5"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="6"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="6"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="6"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="6"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="6"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="6"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="6"/>
+      <c r="AU50" s="5"/>
+      <c r="AV50" s="6"/>
+      <c r="AW50" s="5"/>
+      <c r="AX50" s="6"/>
+      <c r="AY50" s="5"/>
+      <c r="AZ50" s="6"/>
+      <c r="BA50" s="5"/>
+      <c r="BB50" s="6"/>
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="6"/>
+      <c r="BE50" s="5"/>
+      <c r="BF50" s="6"/>
+      <c r="BG50" s="5"/>
+      <c r="BH50" s="6"/>
+      <c r="BI50" s="5"/>
+      <c r="BJ50" s="6"/>
+      <c r="BK50" s="5"/>
+      <c r="BL50" s="6"/>
+      <c r="BM50" s="5"/>
+    </row>
+    <row r="51" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
@@ -4016,76 +3895,76 @@
       <c r="BK51" s="6"/>
       <c r="BL51" s="6"/>
       <c r="BM51" s="6"/>
-      <c r="BN51" s="6"/>
-    </row>
-    <row r="52" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="7"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="7"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="5"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="6"/>
-      <c r="AB52" s="7"/>
-      <c r="AC52" s="6"/>
-      <c r="AD52" s="7"/>
-      <c r="AE52" s="6"/>
-      <c r="AF52" s="7"/>
-      <c r="AG52" s="6"/>
-      <c r="AH52" s="5"/>
-      <c r="AI52" s="6"/>
-      <c r="AJ52" s="7"/>
-      <c r="AK52" s="6"/>
-      <c r="AL52" s="5"/>
-      <c r="AM52" s="6"/>
-      <c r="AN52" s="5"/>
-      <c r="AO52" s="6"/>
-      <c r="AP52" s="5"/>
-      <c r="AQ52" s="6"/>
-      <c r="AR52" s="5"/>
-      <c r="AS52" s="6"/>
-      <c r="AT52" s="5"/>
-      <c r="AU52" s="6"/>
-      <c r="AV52" s="5"/>
-      <c r="AW52" s="6"/>
-      <c r="AX52" s="5"/>
-      <c r="AY52" s="6"/>
-      <c r="AZ52" s="5"/>
-      <c r="BA52" s="6"/>
-      <c r="BB52" s="5"/>
-      <c r="BC52" s="6"/>
-      <c r="BD52" s="5"/>
-      <c r="BE52" s="6"/>
-      <c r="BF52" s="5"/>
-      <c r="BG52" s="6"/>
-      <c r="BH52" s="5"/>
-      <c r="BI52" s="6"/>
-      <c r="BJ52" s="5"/>
-      <c r="BK52" s="6"/>
-      <c r="BL52" s="5"/>
-      <c r="BM52" s="6"/>
-      <c r="BN52" s="5"/>
-    </row>
-    <row r="53" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="5"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="5"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="5"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="5"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="5"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="5"/>
+      <c r="AD52" s="6"/>
+      <c r="AE52" s="5"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="6"/>
+      <c r="AI52" s="5"/>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="6"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="6"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="6"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="6"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="6"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="6"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="6"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="6"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="6"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="6"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="6"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="6"/>
+      <c r="BI52" s="5"/>
+      <c r="BJ52" s="6"/>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="6"/>
+      <c r="BM52" s="5"/>
+    </row>
+    <row r="53" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
@@ -4150,76 +4029,76 @@
       <c r="BK53" s="6"/>
       <c r="BL53" s="6"/>
       <c r="BM53" s="6"/>
-      <c r="BN53" s="6"/>
-    </row>
-    <row r="54" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="7"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="5"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="5"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="5"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="5"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="5"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="5"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="5"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="6"/>
-      <c r="AB54" s="5"/>
-      <c r="AC54" s="6"/>
-      <c r="AD54" s="5"/>
-      <c r="AE54" s="6"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="6"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="6"/>
-      <c r="AJ54" s="7"/>
-      <c r="AK54" s="6"/>
-      <c r="AL54" s="5"/>
-      <c r="AM54" s="6"/>
-      <c r="AN54" s="5"/>
-      <c r="AO54" s="6"/>
-      <c r="AP54" s="5"/>
-      <c r="AQ54" s="6"/>
-      <c r="AR54" s="5"/>
-      <c r="AS54" s="6"/>
-      <c r="AT54" s="5"/>
-      <c r="AU54" s="6"/>
-      <c r="AV54" s="5"/>
-      <c r="AW54" s="6"/>
-      <c r="AX54" s="5"/>
-      <c r="AY54" s="6"/>
-      <c r="AZ54" s="5"/>
-      <c r="BA54" s="6"/>
-      <c r="BB54" s="5"/>
-      <c r="BC54" s="6"/>
-      <c r="BD54" s="5"/>
-      <c r="BE54" s="6"/>
-      <c r="BF54" s="5"/>
-      <c r="BG54" s="6"/>
-      <c r="BH54" s="5"/>
-      <c r="BI54" s="6"/>
-      <c r="BJ54" s="5"/>
-      <c r="BK54" s="6"/>
-      <c r="BL54" s="5"/>
-      <c r="BM54" s="6"/>
-      <c r="BN54" s="5"/>
-    </row>
-    <row r="55" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="5"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="6"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="6"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="6"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="6"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="6"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="6"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="6"/>
+      <c r="AU54" s="5"/>
+      <c r="AV54" s="6"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="6"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="6"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="6"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="6"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="6"/>
+      <c r="BG54" s="5"/>
+      <c r="BH54" s="6"/>
+      <c r="BI54" s="5"/>
+      <c r="BJ54" s="6"/>
+      <c r="BK54" s="5"/>
+      <c r="BL54" s="6"/>
+      <c r="BM54" s="5"/>
+    </row>
+    <row r="55" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -4284,76 +4163,76 @@
       <c r="BK55" s="6"/>
       <c r="BL55" s="6"/>
       <c r="BM55" s="6"/>
-      <c r="BN55" s="6"/>
-    </row>
-    <row r="56" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="7"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="7"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="7"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="5"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="5"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="6"/>
-      <c r="AB56" s="5"/>
-      <c r="AC56" s="6"/>
-      <c r="AD56" s="5"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="5"/>
-      <c r="AG56" s="6"/>
-      <c r="AH56" s="5"/>
-      <c r="AI56" s="6"/>
-      <c r="AJ56" s="5"/>
-      <c r="AK56" s="6"/>
-      <c r="AL56" s="5"/>
-      <c r="AM56" s="6"/>
-      <c r="AN56" s="5"/>
-      <c r="AO56" s="6"/>
-      <c r="AP56" s="5"/>
-      <c r="AQ56" s="6"/>
-      <c r="AR56" s="5"/>
-      <c r="AS56" s="6"/>
-      <c r="AT56" s="5"/>
-      <c r="AU56" s="6"/>
-      <c r="AV56" s="5"/>
-      <c r="AW56" s="6"/>
-      <c r="AX56" s="5"/>
-      <c r="AY56" s="6"/>
-      <c r="AZ56" s="5"/>
-      <c r="BA56" s="6"/>
-      <c r="BB56" s="5"/>
-      <c r="BC56" s="6"/>
-      <c r="BD56" s="5"/>
-      <c r="BE56" s="6"/>
-      <c r="BF56" s="5"/>
-      <c r="BG56" s="6"/>
-      <c r="BH56" s="5"/>
-      <c r="BI56" s="6"/>
-      <c r="BJ56" s="5"/>
-      <c r="BK56" s="6"/>
-      <c r="BL56" s="5"/>
-      <c r="BM56" s="6"/>
-      <c r="BN56" s="5"/>
-    </row>
-    <row r="57" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="5"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="5"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="5"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="5"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="5"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="5"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="6"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="6"/>
+      <c r="AI56" s="5"/>
+      <c r="AJ56" s="6"/>
+      <c r="AK56" s="5"/>
+      <c r="AL56" s="6"/>
+      <c r="AM56" s="5"/>
+      <c r="AN56" s="6"/>
+      <c r="AO56" s="5"/>
+      <c r="AP56" s="6"/>
+      <c r="AQ56" s="5"/>
+      <c r="AR56" s="6"/>
+      <c r="AS56" s="5"/>
+      <c r="AT56" s="6"/>
+      <c r="AU56" s="5"/>
+      <c r="AV56" s="6"/>
+      <c r="AW56" s="5"/>
+      <c r="AX56" s="6"/>
+      <c r="AY56" s="5"/>
+      <c r="AZ56" s="6"/>
+      <c r="BA56" s="5"/>
+      <c r="BB56" s="6"/>
+      <c r="BC56" s="5"/>
+      <c r="BD56" s="6"/>
+      <c r="BE56" s="5"/>
+      <c r="BF56" s="6"/>
+      <c r="BG56" s="5"/>
+      <c r="BH56" s="6"/>
+      <c r="BI56" s="5"/>
+      <c r="BJ56" s="6"/>
+      <c r="BK56" s="5"/>
+      <c r="BL56" s="6"/>
+      <c r="BM56" s="5"/>
+    </row>
+    <row r="57" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
@@ -4418,76 +4297,76 @@
       <c r="BK57" s="6"/>
       <c r="BL57" s="6"/>
       <c r="BM57" s="6"/>
-      <c r="BN57" s="6"/>
-    </row>
-    <row r="58" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="5"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="5"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="5"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="5"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="5"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="7"/>
-      <c r="AA58" s="6"/>
-      <c r="AB58" s="7"/>
-      <c r="AC58" s="6"/>
-      <c r="AD58" s="7"/>
-      <c r="AE58" s="6"/>
-      <c r="AF58" s="7"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="7"/>
-      <c r="AI58" s="6"/>
-      <c r="AJ58" s="5"/>
-      <c r="AK58" s="6"/>
-      <c r="AL58" s="5"/>
-      <c r="AM58" s="6"/>
-      <c r="AN58" s="5"/>
-      <c r="AO58" s="6"/>
-      <c r="AP58" s="5"/>
-      <c r="AQ58" s="6"/>
-      <c r="AR58" s="5"/>
-      <c r="AS58" s="6"/>
-      <c r="AT58" s="5"/>
-      <c r="AU58" s="6"/>
-      <c r="AV58" s="5"/>
-      <c r="AW58" s="6"/>
-      <c r="AX58" s="5"/>
-      <c r="AY58" s="6"/>
-      <c r="AZ58" s="5"/>
-      <c r="BA58" s="6"/>
-      <c r="BB58" s="5"/>
-      <c r="BC58" s="6"/>
-      <c r="BD58" s="5"/>
-      <c r="BE58" s="6"/>
-      <c r="BF58" s="5"/>
-      <c r="BG58" s="6"/>
-      <c r="BH58" s="5"/>
-      <c r="BI58" s="6"/>
-      <c r="BJ58" s="5"/>
-      <c r="BK58" s="6"/>
-      <c r="BL58" s="5"/>
-      <c r="BM58" s="6"/>
-      <c r="BN58" s="5"/>
-    </row>
-    <row r="59" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="5"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="5"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="5"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="6"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="6"/>
+      <c r="AI58" s="5"/>
+      <c r="AJ58" s="6"/>
+      <c r="AK58" s="5"/>
+      <c r="AL58" s="6"/>
+      <c r="AM58" s="5"/>
+      <c r="AN58" s="6"/>
+      <c r="AO58" s="5"/>
+      <c r="AP58" s="6"/>
+      <c r="AQ58" s="5"/>
+      <c r="AR58" s="6"/>
+      <c r="AS58" s="5"/>
+      <c r="AT58" s="6"/>
+      <c r="AU58" s="5"/>
+      <c r="AV58" s="6"/>
+      <c r="AW58" s="5"/>
+      <c r="AX58" s="6"/>
+      <c r="AY58" s="5"/>
+      <c r="AZ58" s="6"/>
+      <c r="BA58" s="5"/>
+      <c r="BB58" s="6"/>
+      <c r="BC58" s="5"/>
+      <c r="BD58" s="6"/>
+      <c r="BE58" s="5"/>
+      <c r="BF58" s="6"/>
+      <c r="BG58" s="5"/>
+      <c r="BH58" s="6"/>
+      <c r="BI58" s="5"/>
+      <c r="BJ58" s="6"/>
+      <c r="BK58" s="5"/>
+      <c r="BL58" s="6"/>
+      <c r="BM58" s="5"/>
+    </row>
+    <row r="59" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
@@ -4552,76 +4431,76 @@
       <c r="BK59" s="6"/>
       <c r="BL59" s="6"/>
       <c r="BM59" s="6"/>
-      <c r="BN59" s="6"/>
-    </row>
-    <row r="60" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="5"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="5"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="6"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="6"/>
-      <c r="AD60" s="5"/>
-      <c r="AE60" s="6"/>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="6"/>
-      <c r="AH60" s="5"/>
-      <c r="AI60" s="6"/>
-      <c r="AJ60" s="5"/>
-      <c r="AK60" s="6"/>
-      <c r="AL60" s="5"/>
-      <c r="AM60" s="6"/>
-      <c r="AN60" s="5"/>
-      <c r="AO60" s="6"/>
-      <c r="AP60" s="5"/>
-      <c r="AQ60" s="6"/>
-      <c r="AR60" s="5"/>
-      <c r="AS60" s="6"/>
-      <c r="AT60" s="5"/>
-      <c r="AU60" s="6"/>
-      <c r="AV60" s="5"/>
-      <c r="AW60" s="6"/>
-      <c r="AX60" s="5"/>
-      <c r="AY60" s="6"/>
-      <c r="AZ60" s="5"/>
-      <c r="BA60" s="6"/>
-      <c r="BB60" s="5"/>
-      <c r="BC60" s="6"/>
-      <c r="BD60" s="5"/>
-      <c r="BE60" s="6"/>
-      <c r="BF60" s="5"/>
-      <c r="BG60" s="6"/>
-      <c r="BH60" s="5"/>
-      <c r="BI60" s="6"/>
-      <c r="BJ60" s="5"/>
-      <c r="BK60" s="6"/>
-      <c r="BL60" s="5"/>
-      <c r="BM60" s="6"/>
-      <c r="BN60" s="5"/>
-    </row>
-    <row r="61" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="5"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="5"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="5"/>
+      <c r="AB60" s="6"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="6"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="6"/>
+      <c r="AI60" s="5"/>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" s="5"/>
+      <c r="AL60" s="6"/>
+      <c r="AM60" s="5"/>
+      <c r="AN60" s="6"/>
+      <c r="AO60" s="5"/>
+      <c r="AP60" s="6"/>
+      <c r="AQ60" s="5"/>
+      <c r="AR60" s="6"/>
+      <c r="AS60" s="5"/>
+      <c r="AT60" s="6"/>
+      <c r="AU60" s="5"/>
+      <c r="AV60" s="6"/>
+      <c r="AW60" s="5"/>
+      <c r="AX60" s="6"/>
+      <c r="AY60" s="5"/>
+      <c r="AZ60" s="6"/>
+      <c r="BA60" s="5"/>
+      <c r="BB60" s="6"/>
+      <c r="BC60" s="5"/>
+      <c r="BD60" s="6"/>
+      <c r="BE60" s="5"/>
+      <c r="BF60" s="6"/>
+      <c r="BG60" s="5"/>
+      <c r="BH60" s="6"/>
+      <c r="BI60" s="5"/>
+      <c r="BJ60" s="6"/>
+      <c r="BK60" s="5"/>
+      <c r="BL60" s="6"/>
+      <c r="BM60" s="5"/>
+    </row>
+    <row r="61" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -4686,76 +4565,76 @@
       <c r="BK61" s="6"/>
       <c r="BL61" s="6"/>
       <c r="BM61" s="6"/>
-      <c r="BN61" s="6"/>
-    </row>
-    <row r="62" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="5"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="5"/>
-      <c r="AA62" s="6"/>
-      <c r="AB62" s="5"/>
-      <c r="AC62" s="6"/>
-      <c r="AD62" s="5"/>
-      <c r="AE62" s="6"/>
-      <c r="AF62" s="5"/>
-      <c r="AG62" s="6"/>
-      <c r="AH62" s="5"/>
-      <c r="AI62" s="6"/>
-      <c r="AJ62" s="5"/>
-      <c r="AK62" s="6"/>
-      <c r="AL62" s="5"/>
-      <c r="AM62" s="6"/>
-      <c r="AN62" s="5"/>
-      <c r="AO62" s="6"/>
-      <c r="AP62" s="5"/>
-      <c r="AQ62" s="6"/>
-      <c r="AR62" s="5"/>
-      <c r="AS62" s="6"/>
-      <c r="AT62" s="5"/>
-      <c r="AU62" s="6"/>
-      <c r="AV62" s="5"/>
-      <c r="AW62" s="6"/>
-      <c r="AX62" s="5"/>
-      <c r="AY62" s="6"/>
-      <c r="AZ62" s="5"/>
-      <c r="BA62" s="6"/>
-      <c r="BB62" s="5"/>
-      <c r="BC62" s="6"/>
-      <c r="BD62" s="5"/>
-      <c r="BE62" s="6"/>
-      <c r="BF62" s="5"/>
-      <c r="BG62" s="6"/>
-      <c r="BH62" s="5"/>
-      <c r="BI62" s="6"/>
-      <c r="BJ62" s="5"/>
-      <c r="BK62" s="6"/>
-      <c r="BL62" s="5"/>
-      <c r="BM62" s="6"/>
-      <c r="BN62" s="5"/>
-    </row>
-    <row r="63" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="5"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="5"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="5"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="5"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="5"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="5"/>
+      <c r="Z62" s="6"/>
+      <c r="AA62" s="5"/>
+      <c r="AB62" s="6"/>
+      <c r="AC62" s="5"/>
+      <c r="AD62" s="6"/>
+      <c r="AE62" s="5"/>
+      <c r="AF62" s="6"/>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="6"/>
+      <c r="AI62" s="5"/>
+      <c r="AJ62" s="6"/>
+      <c r="AK62" s="5"/>
+      <c r="AL62" s="6"/>
+      <c r="AM62" s="5"/>
+      <c r="AN62" s="6"/>
+      <c r="AO62" s="5"/>
+      <c r="AP62" s="6"/>
+      <c r="AQ62" s="5"/>
+      <c r="AR62" s="6"/>
+      <c r="AS62" s="5"/>
+      <c r="AT62" s="6"/>
+      <c r="AU62" s="5"/>
+      <c r="AV62" s="6"/>
+      <c r="AW62" s="5"/>
+      <c r="AX62" s="6"/>
+      <c r="AY62" s="5"/>
+      <c r="AZ62" s="6"/>
+      <c r="BA62" s="5"/>
+      <c r="BB62" s="6"/>
+      <c r="BC62" s="5"/>
+      <c r="BD62" s="6"/>
+      <c r="BE62" s="5"/>
+      <c r="BF62" s="6"/>
+      <c r="BG62" s="5"/>
+      <c r="BH62" s="6"/>
+      <c r="BI62" s="5"/>
+      <c r="BJ62" s="6"/>
+      <c r="BK62" s="5"/>
+      <c r="BL62" s="6"/>
+      <c r="BM62" s="5"/>
+    </row>
+    <row r="63" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
@@ -4820,76 +4699,76 @@
       <c r="BK63" s="6"/>
       <c r="BL63" s="6"/>
       <c r="BM63" s="6"/>
-      <c r="BN63" s="6"/>
-    </row>
-    <row r="64" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="5"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="5"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="5"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="5"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="5"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="5"/>
-      <c r="AA64" s="6"/>
-      <c r="AB64" s="5"/>
-      <c r="AC64" s="6"/>
-      <c r="AD64" s="5"/>
-      <c r="AE64" s="6"/>
-      <c r="AF64" s="5"/>
-      <c r="AG64" s="6"/>
-      <c r="AH64" s="5"/>
-      <c r="AI64" s="6"/>
-      <c r="AJ64" s="5"/>
-      <c r="AK64" s="6"/>
-      <c r="AL64" s="5"/>
-      <c r="AM64" s="6"/>
-      <c r="AN64" s="5"/>
-      <c r="AO64" s="6"/>
-      <c r="AP64" s="5"/>
-      <c r="AQ64" s="6"/>
-      <c r="AR64" s="5"/>
-      <c r="AS64" s="6"/>
-      <c r="AT64" s="5"/>
-      <c r="AU64" s="6"/>
-      <c r="AV64" s="5"/>
-      <c r="AW64" s="6"/>
-      <c r="AX64" s="5"/>
-      <c r="AY64" s="6"/>
-      <c r="AZ64" s="5"/>
-      <c r="BA64" s="6"/>
-      <c r="BB64" s="5"/>
-      <c r="BC64" s="6"/>
-      <c r="BD64" s="5"/>
-      <c r="BE64" s="6"/>
-      <c r="BF64" s="5"/>
-      <c r="BG64" s="6"/>
-      <c r="BH64" s="5"/>
-      <c r="BI64" s="6"/>
-      <c r="BJ64" s="5"/>
-      <c r="BK64" s="6"/>
-      <c r="BL64" s="5"/>
-      <c r="BM64" s="6"/>
-      <c r="BN64" s="5"/>
-    </row>
-    <row r="65" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="5"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="5"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="5"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="5"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="5"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="5"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="5"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="5"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="5"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="5"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="5"/>
+      <c r="AN64" s="6"/>
+      <c r="AO64" s="5"/>
+      <c r="AP64" s="6"/>
+      <c r="AQ64" s="5"/>
+      <c r="AR64" s="6"/>
+      <c r="AS64" s="5"/>
+      <c r="AT64" s="6"/>
+      <c r="AU64" s="5"/>
+      <c r="AV64" s="6"/>
+      <c r="AW64" s="5"/>
+      <c r="AX64" s="6"/>
+      <c r="AY64" s="5"/>
+      <c r="AZ64" s="6"/>
+      <c r="BA64" s="5"/>
+      <c r="BB64" s="6"/>
+      <c r="BC64" s="5"/>
+      <c r="BD64" s="6"/>
+      <c r="BE64" s="5"/>
+      <c r="BF64" s="6"/>
+      <c r="BG64" s="5"/>
+      <c r="BH64" s="6"/>
+      <c r="BI64" s="5"/>
+      <c r="BJ64" s="6"/>
+      <c r="BK64" s="5"/>
+      <c r="BL64" s="6"/>
+      <c r="BM64" s="5"/>
+    </row>
+    <row r="65" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
@@ -4954,76 +4833,76 @@
       <c r="BK65" s="6"/>
       <c r="BL65" s="6"/>
       <c r="BM65" s="6"/>
-      <c r="BN65" s="6"/>
-    </row>
-    <row r="66" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="5"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="5"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="5"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="5"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="5"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="5"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="5"/>
-      <c r="AA66" s="6"/>
-      <c r="AB66" s="5"/>
-      <c r="AC66" s="6"/>
-      <c r="AD66" s="5"/>
-      <c r="AE66" s="6"/>
-      <c r="AF66" s="5"/>
-      <c r="AG66" s="6"/>
-      <c r="AH66" s="5"/>
-      <c r="AI66" s="6"/>
-      <c r="AJ66" s="5"/>
-      <c r="AK66" s="6"/>
-      <c r="AL66" s="5"/>
-      <c r="AM66" s="6"/>
-      <c r="AN66" s="5"/>
-      <c r="AO66" s="6"/>
-      <c r="AP66" s="5"/>
-      <c r="AQ66" s="6"/>
-      <c r="AR66" s="5"/>
-      <c r="AS66" s="6"/>
-      <c r="AT66" s="5"/>
-      <c r="AU66" s="6"/>
-      <c r="AV66" s="5"/>
-      <c r="AW66" s="6"/>
-      <c r="AX66" s="5"/>
-      <c r="AY66" s="6"/>
-      <c r="AZ66" s="5"/>
-      <c r="BA66" s="6"/>
-      <c r="BB66" s="5"/>
-      <c r="BC66" s="6"/>
-      <c r="BD66" s="5"/>
-      <c r="BE66" s="6"/>
-      <c r="BF66" s="5"/>
-      <c r="BG66" s="6"/>
-      <c r="BH66" s="5"/>
-      <c r="BI66" s="6"/>
-      <c r="BJ66" s="5"/>
-      <c r="BK66" s="6"/>
-      <c r="BL66" s="5"/>
-      <c r="BM66" s="6"/>
-      <c r="BN66" s="5"/>
-    </row>
-    <row r="67" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="5"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="5"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="5"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="5"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="5"/>
+      <c r="AD66" s="6"/>
+      <c r="AE66" s="5"/>
+      <c r="AF66" s="6"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="5"/>
+      <c r="AJ66" s="6"/>
+      <c r="AK66" s="5"/>
+      <c r="AL66" s="6"/>
+      <c r="AM66" s="5"/>
+      <c r="AN66" s="6"/>
+      <c r="AO66" s="5"/>
+      <c r="AP66" s="6"/>
+      <c r="AQ66" s="5"/>
+      <c r="AR66" s="6"/>
+      <c r="AS66" s="5"/>
+      <c r="AT66" s="6"/>
+      <c r="AU66" s="5"/>
+      <c r="AV66" s="6"/>
+      <c r="AW66" s="5"/>
+      <c r="AX66" s="6"/>
+      <c r="AY66" s="5"/>
+      <c r="AZ66" s="6"/>
+      <c r="BA66" s="5"/>
+      <c r="BB66" s="6"/>
+      <c r="BC66" s="5"/>
+      <c r="BD66" s="6"/>
+      <c r="BE66" s="5"/>
+      <c r="BF66" s="6"/>
+      <c r="BG66" s="5"/>
+      <c r="BH66" s="6"/>
+      <c r="BI66" s="5"/>
+      <c r="BJ66" s="6"/>
+      <c r="BK66" s="5"/>
+      <c r="BL66" s="6"/>
+      <c r="BM66" s="5"/>
+    </row>
+    <row r="67" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -5088,76 +4967,76 @@
       <c r="BK67" s="6"/>
       <c r="BL67" s="6"/>
       <c r="BM67" s="6"/>
-      <c r="BN67" s="6"/>
-    </row>
-    <row r="68" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="5"/>
-      <c r="C68" s="6"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="5"/>
-      <c r="AA68" s="6"/>
-      <c r="AB68" s="5"/>
-      <c r="AC68" s="6"/>
-      <c r="AD68" s="5"/>
-      <c r="AE68" s="6"/>
-      <c r="AF68" s="5"/>
-      <c r="AG68" s="6"/>
-      <c r="AH68" s="5"/>
-      <c r="AI68" s="6"/>
-      <c r="AJ68" s="5"/>
-      <c r="AK68" s="6"/>
-      <c r="AL68" s="5"/>
-      <c r="AM68" s="6"/>
-      <c r="AN68" s="5"/>
-      <c r="AO68" s="6"/>
-      <c r="AP68" s="5"/>
-      <c r="AQ68" s="6"/>
-      <c r="AR68" s="5"/>
-      <c r="AS68" s="6"/>
-      <c r="AT68" s="5"/>
-      <c r="AU68" s="6"/>
-      <c r="AV68" s="5"/>
-      <c r="AW68" s="6"/>
-      <c r="AX68" s="5"/>
-      <c r="AY68" s="6"/>
-      <c r="AZ68" s="5"/>
-      <c r="BA68" s="6"/>
-      <c r="BB68" s="5"/>
-      <c r="BC68" s="6"/>
-      <c r="BD68" s="5"/>
-      <c r="BE68" s="6"/>
-      <c r="BF68" s="5"/>
-      <c r="BG68" s="6"/>
-      <c r="BH68" s="5"/>
-      <c r="BI68" s="6"/>
-      <c r="BJ68" s="5"/>
-      <c r="BK68" s="6"/>
-      <c r="BL68" s="5"/>
-      <c r="BM68" s="6"/>
-      <c r="BN68" s="5"/>
-    </row>
-    <row r="69" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="5"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="5"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="5"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="5"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="5"/>
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="5"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="5"/>
+      <c r="AD68" s="6"/>
+      <c r="AE68" s="5"/>
+      <c r="AF68" s="6"/>
+      <c r="AG68" s="5"/>
+      <c r="AH68" s="6"/>
+      <c r="AI68" s="5"/>
+      <c r="AJ68" s="6"/>
+      <c r="AK68" s="5"/>
+      <c r="AL68" s="6"/>
+      <c r="AM68" s="5"/>
+      <c r="AN68" s="6"/>
+      <c r="AO68" s="5"/>
+      <c r="AP68" s="6"/>
+      <c r="AQ68" s="5"/>
+      <c r="AR68" s="6"/>
+      <c r="AS68" s="5"/>
+      <c r="AT68" s="6"/>
+      <c r="AU68" s="5"/>
+      <c r="AV68" s="6"/>
+      <c r="AW68" s="5"/>
+      <c r="AX68" s="6"/>
+      <c r="AY68" s="5"/>
+      <c r="AZ68" s="6"/>
+      <c r="BA68" s="5"/>
+      <c r="BB68" s="6"/>
+      <c r="BC68" s="5"/>
+      <c r="BD68" s="6"/>
+      <c r="BE68" s="5"/>
+      <c r="BF68" s="6"/>
+      <c r="BG68" s="5"/>
+      <c r="BH68" s="6"/>
+      <c r="BI68" s="5"/>
+      <c r="BJ68" s="6"/>
+      <c r="BK68" s="5"/>
+      <c r="BL68" s="6"/>
+      <c r="BM68" s="5"/>
+    </row>
+    <row r="69" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -5222,76 +5101,76 @@
       <c r="BK69" s="6"/>
       <c r="BL69" s="6"/>
       <c r="BM69" s="6"/>
-      <c r="BN69" s="6"/>
-    </row>
-    <row r="70" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="5"/>
-      <c r="C70" s="6"/>
-      <c r="D70" s="5"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="5"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="5"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="5"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="5"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="5"/>
-      <c r="AA70" s="6"/>
-      <c r="AB70" s="5"/>
-      <c r="AC70" s="6"/>
-      <c r="AD70" s="5"/>
-      <c r="AE70" s="6"/>
-      <c r="AF70" s="5"/>
-      <c r="AG70" s="6"/>
-      <c r="AH70" s="5"/>
-      <c r="AI70" s="6"/>
-      <c r="AJ70" s="5"/>
-      <c r="AK70" s="6"/>
-      <c r="AL70" s="5"/>
-      <c r="AM70" s="6"/>
-      <c r="AN70" s="5"/>
-      <c r="AO70" s="6"/>
-      <c r="AP70" s="5"/>
-      <c r="AQ70" s="6"/>
-      <c r="AR70" s="5"/>
-      <c r="AS70" s="6"/>
-      <c r="AT70" s="5"/>
-      <c r="AU70" s="6"/>
-      <c r="AV70" s="5"/>
-      <c r="AW70" s="6"/>
-      <c r="AX70" s="5"/>
-      <c r="AY70" s="6"/>
-      <c r="AZ70" s="5"/>
-      <c r="BA70" s="6"/>
-      <c r="BB70" s="5"/>
-      <c r="BC70" s="6"/>
-      <c r="BD70" s="5"/>
-      <c r="BE70" s="6"/>
-      <c r="BF70" s="5"/>
-      <c r="BG70" s="6"/>
-      <c r="BH70" s="5"/>
-      <c r="BI70" s="6"/>
-      <c r="BJ70" s="5"/>
-      <c r="BK70" s="6"/>
-      <c r="BL70" s="5"/>
-      <c r="BM70" s="6"/>
-      <c r="BN70" s="5"/>
-    </row>
-    <row r="71" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="5"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="5"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="5"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="5"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="5"/>
+      <c r="AB70" s="6"/>
+      <c r="AC70" s="5"/>
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="5"/>
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="6"/>
+      <c r="AI70" s="5"/>
+      <c r="AJ70" s="6"/>
+      <c r="AK70" s="5"/>
+      <c r="AL70" s="6"/>
+      <c r="AM70" s="5"/>
+      <c r="AN70" s="6"/>
+      <c r="AO70" s="5"/>
+      <c r="AP70" s="6"/>
+      <c r="AQ70" s="5"/>
+      <c r="AR70" s="6"/>
+      <c r="AS70" s="5"/>
+      <c r="AT70" s="6"/>
+      <c r="AU70" s="5"/>
+      <c r="AV70" s="6"/>
+      <c r="AW70" s="5"/>
+      <c r="AX70" s="6"/>
+      <c r="AY70" s="5"/>
+      <c r="AZ70" s="6"/>
+      <c r="BA70" s="5"/>
+      <c r="BB70" s="6"/>
+      <c r="BC70" s="5"/>
+      <c r="BD70" s="6"/>
+      <c r="BE70" s="5"/>
+      <c r="BF70" s="6"/>
+      <c r="BG70" s="5"/>
+      <c r="BH70" s="6"/>
+      <c r="BI70" s="5"/>
+      <c r="BJ70" s="6"/>
+      <c r="BK70" s="5"/>
+      <c r="BL70" s="6"/>
+      <c r="BM70" s="5"/>
+    </row>
+    <row r="71" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
@@ -5356,76 +5235,76 @@
       <c r="BK71" s="6"/>
       <c r="BL71" s="6"/>
       <c r="BM71" s="6"/>
-      <c r="BN71" s="6"/>
-    </row>
-    <row r="72" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="5"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="5"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="5"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="5"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="5"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="5"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="5"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="5"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="5"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="5"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="6"/>
-      <c r="AB72" s="5"/>
-      <c r="AC72" s="6"/>
-      <c r="AD72" s="5"/>
-      <c r="AE72" s="6"/>
-      <c r="AF72" s="5"/>
-      <c r="AG72" s="6"/>
-      <c r="AH72" s="5"/>
-      <c r="AI72" s="6"/>
-      <c r="AJ72" s="5"/>
-      <c r="AK72" s="6"/>
-      <c r="AL72" s="5"/>
-      <c r="AM72" s="6"/>
-      <c r="AN72" s="5"/>
-      <c r="AO72" s="6"/>
-      <c r="AP72" s="5"/>
-      <c r="AQ72" s="6"/>
-      <c r="AR72" s="5"/>
-      <c r="AS72" s="6"/>
-      <c r="AT72" s="5"/>
-      <c r="AU72" s="6"/>
-      <c r="AV72" s="5"/>
-      <c r="AW72" s="6"/>
-      <c r="AX72" s="5"/>
-      <c r="AY72" s="6"/>
-      <c r="AZ72" s="5"/>
-      <c r="BA72" s="6"/>
-      <c r="BB72" s="5"/>
-      <c r="BC72" s="6"/>
-      <c r="BD72" s="5"/>
-      <c r="BE72" s="6"/>
-      <c r="BF72" s="5"/>
-      <c r="BG72" s="6"/>
-      <c r="BH72" s="5"/>
-      <c r="BI72" s="6"/>
-      <c r="BJ72" s="5"/>
-      <c r="BK72" s="6"/>
-      <c r="BL72" s="5"/>
-      <c r="BM72" s="6"/>
-      <c r="BN72" s="5"/>
-    </row>
-    <row r="73" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="5"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="5"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="5"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="5"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="5"/>
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="5"/>
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="5"/>
+      <c r="AD72" s="6"/>
+      <c r="AE72" s="5"/>
+      <c r="AF72" s="6"/>
+      <c r="AG72" s="5"/>
+      <c r="AH72" s="6"/>
+      <c r="AI72" s="5"/>
+      <c r="AJ72" s="6"/>
+      <c r="AK72" s="5"/>
+      <c r="AL72" s="6"/>
+      <c r="AM72" s="5"/>
+      <c r="AN72" s="6"/>
+      <c r="AO72" s="5"/>
+      <c r="AP72" s="6"/>
+      <c r="AQ72" s="5"/>
+      <c r="AR72" s="6"/>
+      <c r="AS72" s="5"/>
+      <c r="AT72" s="6"/>
+      <c r="AU72" s="5"/>
+      <c r="AV72" s="6"/>
+      <c r="AW72" s="5"/>
+      <c r="AX72" s="6"/>
+      <c r="AY72" s="5"/>
+      <c r="AZ72" s="6"/>
+      <c r="BA72" s="5"/>
+      <c r="BB72" s="6"/>
+      <c r="BC72" s="5"/>
+      <c r="BD72" s="6"/>
+      <c r="BE72" s="5"/>
+      <c r="BF72" s="6"/>
+      <c r="BG72" s="5"/>
+      <c r="BH72" s="6"/>
+      <c r="BI72" s="5"/>
+      <c r="BJ72" s="6"/>
+      <c r="BK72" s="5"/>
+      <c r="BL72" s="6"/>
+      <c r="BM72" s="5"/>
+    </row>
+    <row r="73" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -5490,76 +5369,76 @@
       <c r="BK73" s="6"/>
       <c r="BL73" s="6"/>
       <c r="BM73" s="6"/>
-      <c r="BN73" s="6"/>
-    </row>
-    <row r="74" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="5"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="5"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="6"/>
-      <c r="AB74" s="5"/>
-      <c r="AC74" s="6"/>
-      <c r="AD74" s="5"/>
-      <c r="AE74" s="6"/>
-      <c r="AF74" s="5"/>
-      <c r="AG74" s="6"/>
-      <c r="AH74" s="5"/>
-      <c r="AI74" s="6"/>
-      <c r="AJ74" s="5"/>
-      <c r="AK74" s="6"/>
-      <c r="AL74" s="5"/>
-      <c r="AM74" s="6"/>
-      <c r="AN74" s="5"/>
-      <c r="AO74" s="6"/>
-      <c r="AP74" s="5"/>
-      <c r="AQ74" s="6"/>
-      <c r="AR74" s="5"/>
-      <c r="AS74" s="6"/>
-      <c r="AT74" s="5"/>
-      <c r="AU74" s="6"/>
-      <c r="AV74" s="5"/>
-      <c r="AW74" s="6"/>
-      <c r="AX74" s="5"/>
-      <c r="AY74" s="6"/>
-      <c r="AZ74" s="5"/>
-      <c r="BA74" s="6"/>
-      <c r="BB74" s="5"/>
-      <c r="BC74" s="6"/>
-      <c r="BD74" s="5"/>
-      <c r="BE74" s="6"/>
-      <c r="BF74" s="5"/>
-      <c r="BG74" s="6"/>
-      <c r="BH74" s="5"/>
-      <c r="BI74" s="6"/>
-      <c r="BJ74" s="5"/>
-      <c r="BK74" s="6"/>
-      <c r="BL74" s="5"/>
-      <c r="BM74" s="6"/>
-      <c r="BN74" s="5"/>
-    </row>
-    <row r="75" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="5"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="5"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="5"/>
+      <c r="AD74" s="6"/>
+      <c r="AE74" s="5"/>
+      <c r="AF74" s="6"/>
+      <c r="AG74" s="5"/>
+      <c r="AH74" s="6"/>
+      <c r="AI74" s="5"/>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" s="5"/>
+      <c r="AL74" s="6"/>
+      <c r="AM74" s="5"/>
+      <c r="AN74" s="6"/>
+      <c r="AO74" s="5"/>
+      <c r="AP74" s="6"/>
+      <c r="AQ74" s="5"/>
+      <c r="AR74" s="6"/>
+      <c r="AS74" s="5"/>
+      <c r="AT74" s="6"/>
+      <c r="AU74" s="5"/>
+      <c r="AV74" s="6"/>
+      <c r="AW74" s="5"/>
+      <c r="AX74" s="6"/>
+      <c r="AY74" s="5"/>
+      <c r="AZ74" s="6"/>
+      <c r="BA74" s="5"/>
+      <c r="BB74" s="6"/>
+      <c r="BC74" s="5"/>
+      <c r="BD74" s="6"/>
+      <c r="BE74" s="5"/>
+      <c r="BF74" s="6"/>
+      <c r="BG74" s="5"/>
+      <c r="BH74" s="6"/>
+      <c r="BI74" s="5"/>
+      <c r="BJ74" s="6"/>
+      <c r="BK74" s="5"/>
+      <c r="BL74" s="6"/>
+      <c r="BM74" s="5"/>
+    </row>
+    <row r="75" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
@@ -5624,76 +5503,76 @@
       <c r="BK75" s="6"/>
       <c r="BL75" s="6"/>
       <c r="BM75" s="6"/>
-      <c r="BN75" s="6"/>
-    </row>
-    <row r="76" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="5"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="6"/>
-      <c r="AB76" s="5"/>
-      <c r="AC76" s="6"/>
-      <c r="AD76" s="5"/>
-      <c r="AE76" s="6"/>
-      <c r="AF76" s="5"/>
-      <c r="AG76" s="6"/>
-      <c r="AH76" s="5"/>
-      <c r="AI76" s="6"/>
-      <c r="AJ76" s="5"/>
-      <c r="AK76" s="6"/>
-      <c r="AL76" s="5"/>
-      <c r="AM76" s="6"/>
-      <c r="AN76" s="5"/>
-      <c r="AO76" s="6"/>
-      <c r="AP76" s="5"/>
-      <c r="AQ76" s="6"/>
-      <c r="AR76" s="5"/>
-      <c r="AS76" s="6"/>
-      <c r="AT76" s="5"/>
-      <c r="AU76" s="6"/>
-      <c r="AV76" s="5"/>
-      <c r="AW76" s="6"/>
-      <c r="AX76" s="5"/>
-      <c r="AY76" s="6"/>
-      <c r="AZ76" s="5"/>
-      <c r="BA76" s="6"/>
-      <c r="BB76" s="5"/>
-      <c r="BC76" s="6"/>
-      <c r="BD76" s="5"/>
-      <c r="BE76" s="6"/>
-      <c r="BF76" s="5"/>
-      <c r="BG76" s="6"/>
-      <c r="BH76" s="5"/>
-      <c r="BI76" s="6"/>
-      <c r="BJ76" s="5"/>
-      <c r="BK76" s="6"/>
-      <c r="BL76" s="5"/>
-      <c r="BM76" s="6"/>
-      <c r="BN76" s="5"/>
-    </row>
-    <row r="77" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="5"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="5"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="5"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="5"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="5"/>
+      <c r="AB76" s="6"/>
+      <c r="AC76" s="5"/>
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="5"/>
+      <c r="AF76" s="6"/>
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="6"/>
+      <c r="AI76" s="5"/>
+      <c r="AJ76" s="6"/>
+      <c r="AK76" s="5"/>
+      <c r="AL76" s="6"/>
+      <c r="AM76" s="5"/>
+      <c r="AN76" s="6"/>
+      <c r="AO76" s="5"/>
+      <c r="AP76" s="6"/>
+      <c r="AQ76" s="5"/>
+      <c r="AR76" s="6"/>
+      <c r="AS76" s="5"/>
+      <c r="AT76" s="6"/>
+      <c r="AU76" s="5"/>
+      <c r="AV76" s="6"/>
+      <c r="AW76" s="5"/>
+      <c r="AX76" s="6"/>
+      <c r="AY76" s="5"/>
+      <c r="AZ76" s="6"/>
+      <c r="BA76" s="5"/>
+      <c r="BB76" s="6"/>
+      <c r="BC76" s="5"/>
+      <c r="BD76" s="6"/>
+      <c r="BE76" s="5"/>
+      <c r="BF76" s="6"/>
+      <c r="BG76" s="5"/>
+      <c r="BH76" s="6"/>
+      <c r="BI76" s="5"/>
+      <c r="BJ76" s="6"/>
+      <c r="BK76" s="5"/>
+      <c r="BL76" s="6"/>
+      <c r="BM76" s="5"/>
+    </row>
+    <row r="77" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
@@ -5758,344 +5637,480 @@
       <c r="BK77" s="6"/>
       <c r="BL77" s="6"/>
       <c r="BM77" s="6"/>
-      <c r="BN77" s="6"/>
-    </row>
-    <row r="78" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="5"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="5"/>
-      <c r="AA78" s="6"/>
-      <c r="AB78" s="5"/>
-      <c r="AC78" s="6"/>
-      <c r="AD78" s="5"/>
-      <c r="AE78" s="6"/>
-      <c r="AF78" s="5"/>
-      <c r="AG78" s="6"/>
-      <c r="AH78" s="5"/>
-      <c r="AI78" s="6"/>
-      <c r="AJ78" s="5"/>
-      <c r="AK78" s="6"/>
-      <c r="AL78" s="5"/>
-      <c r="AM78" s="6"/>
-      <c r="AN78" s="5"/>
-      <c r="AO78" s="6"/>
-      <c r="AP78" s="5"/>
-      <c r="AQ78" s="6"/>
-      <c r="AR78" s="5"/>
-      <c r="AS78" s="6"/>
-      <c r="AT78" s="5"/>
-      <c r="AU78" s="6"/>
-      <c r="AV78" s="5"/>
-      <c r="AW78" s="6"/>
-      <c r="AX78" s="5"/>
-      <c r="AY78" s="6"/>
-      <c r="AZ78" s="5"/>
-      <c r="BA78" s="6"/>
-      <c r="BB78" s="5"/>
-      <c r="BC78" s="6"/>
-      <c r="BD78" s="5"/>
-      <c r="BE78" s="6"/>
-      <c r="BF78" s="5"/>
-      <c r="BG78" s="6"/>
-      <c r="BH78" s="5"/>
-      <c r="BI78" s="6"/>
-      <c r="BJ78" s="5"/>
-      <c r="BK78" s="6"/>
-      <c r="BL78" s="5"/>
-      <c r="BM78" s="6"/>
-      <c r="BN78" s="5"/>
-    </row>
-    <row r="79" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
-      <c r="AA79" s="6"/>
-      <c r="AB79" s="6"/>
-      <c r="AC79" s="6"/>
-      <c r="AD79" s="6"/>
-      <c r="AE79" s="6"/>
-      <c r="AF79" s="6"/>
-      <c r="AG79" s="6"/>
-      <c r="AH79" s="6"/>
-      <c r="AI79" s="6"/>
-      <c r="AJ79" s="6"/>
-      <c r="AK79" s="6"/>
-      <c r="AL79" s="6"/>
-      <c r="AM79" s="6"/>
-      <c r="AN79" s="6"/>
-      <c r="AO79" s="6"/>
-      <c r="AP79" s="6"/>
-      <c r="AQ79" s="6"/>
-      <c r="AR79" s="6"/>
-      <c r="AS79" s="6"/>
-      <c r="AT79" s="6"/>
-      <c r="AU79" s="6"/>
-      <c r="AV79" s="6"/>
-      <c r="AW79" s="6"/>
-      <c r="AX79" s="6"/>
-      <c r="AY79" s="6"/>
-      <c r="AZ79" s="6"/>
-      <c r="BA79" s="6"/>
-      <c r="BB79" s="6"/>
-      <c r="BC79" s="6"/>
-      <c r="BD79" s="6"/>
-      <c r="BE79" s="6"/>
-      <c r="BF79" s="6"/>
-      <c r="BG79" s="6"/>
-      <c r="BH79" s="6"/>
-      <c r="BI79" s="6"/>
-      <c r="BJ79" s="6"/>
-      <c r="BK79" s="6"/>
-      <c r="BL79" s="6"/>
-      <c r="BM79" s="6"/>
-      <c r="BN79" s="6"/>
-    </row>
-    <row r="80" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="5"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="5"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="5"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="5"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="5"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="5"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="5"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="5"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="5"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="5"/>
-      <c r="AA80" s="6"/>
-      <c r="AB80" s="5"/>
-      <c r="AC80" s="6"/>
-      <c r="AD80" s="5"/>
-      <c r="AE80" s="6"/>
-      <c r="AF80" s="5"/>
-      <c r="AG80" s="6"/>
-      <c r="AH80" s="5"/>
-      <c r="AI80" s="6"/>
-      <c r="AJ80" s="5"/>
-      <c r="AK80" s="6"/>
-      <c r="AL80" s="5"/>
-      <c r="AM80" s="6"/>
-      <c r="AN80" s="5"/>
-      <c r="AO80" s="6"/>
-      <c r="AP80" s="5"/>
-      <c r="AQ80" s="6"/>
-      <c r="AR80" s="5"/>
-      <c r="AS80" s="6"/>
-      <c r="AT80" s="5"/>
-      <c r="AU80" s="6"/>
-      <c r="AV80" s="5"/>
-      <c r="AW80" s="6"/>
-      <c r="AX80" s="5"/>
-      <c r="AY80" s="6"/>
-      <c r="AZ80" s="5"/>
-      <c r="BA80" s="6"/>
-      <c r="BB80" s="5"/>
-      <c r="BC80" s="6"/>
-      <c r="BD80" s="5"/>
-      <c r="BE80" s="6"/>
-      <c r="BF80" s="5"/>
-      <c r="BG80" s="6"/>
-      <c r="BH80" s="5"/>
-      <c r="BI80" s="6"/>
-      <c r="BJ80" s="5"/>
-      <c r="BK80" s="6"/>
-      <c r="BL80" s="5"/>
-      <c r="BM80" s="6"/>
-      <c r="BN80" s="5"/>
-    </row>
-    <row r="81" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
-      <c r="AA81" s="6"/>
-      <c r="AB81" s="6"/>
-      <c r="AC81" s="6"/>
-      <c r="AD81" s="6"/>
-      <c r="AE81" s="6"/>
-      <c r="AF81" s="6"/>
-      <c r="AG81" s="6"/>
-      <c r="AH81" s="6"/>
-      <c r="AI81" s="6"/>
-      <c r="AJ81" s="6"/>
-      <c r="AK81" s="6"/>
-      <c r="AL81" s="6"/>
-      <c r="AM81" s="6"/>
-      <c r="AN81" s="6"/>
-      <c r="AO81" s="6"/>
-      <c r="AP81" s="6"/>
-      <c r="AQ81" s="6"/>
-      <c r="AR81" s="6"/>
-      <c r="AS81" s="6"/>
-      <c r="AT81" s="6"/>
-      <c r="AU81" s="6"/>
-      <c r="AV81" s="6"/>
-      <c r="AW81" s="6"/>
-      <c r="AX81" s="6"/>
-      <c r="AY81" s="6"/>
-      <c r="AZ81" s="6"/>
-      <c r="BA81" s="6"/>
-      <c r="BB81" s="6"/>
-      <c r="BC81" s="6"/>
-      <c r="BD81" s="6"/>
-      <c r="BE81" s="6"/>
-      <c r="BF81" s="6"/>
-      <c r="BG81" s="6"/>
-      <c r="BH81" s="6"/>
-      <c r="BI81" s="6"/>
-      <c r="BJ81" s="6"/>
-      <c r="BK81" s="6"/>
-      <c r="BL81" s="6"/>
-      <c r="BM81" s="6"/>
-      <c r="BN81" s="6"/>
-    </row>
-    <row r="82" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="5"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="5"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="5"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="5"/>
-      <c r="AA82" s="6"/>
-      <c r="AB82" s="5"/>
-      <c r="AC82" s="6"/>
-      <c r="AD82" s="5"/>
-      <c r="AE82" s="6"/>
-      <c r="AF82" s="5"/>
-      <c r="AG82" s="6"/>
-      <c r="AH82" s="5"/>
-      <c r="AI82" s="6"/>
-      <c r="AJ82" s="5"/>
-      <c r="AK82" s="6"/>
-      <c r="AL82" s="5"/>
-      <c r="AM82" s="6"/>
-      <c r="AN82" s="5"/>
-      <c r="AO82" s="6"/>
-      <c r="AP82" s="5"/>
-      <c r="AQ82" s="6"/>
-      <c r="AR82" s="5"/>
-      <c r="AS82" s="6"/>
-      <c r="AT82" s="5"/>
-      <c r="AU82" s="6"/>
-      <c r="AV82" s="5"/>
-      <c r="AW82" s="6"/>
-      <c r="AX82" s="5"/>
-      <c r="AY82" s="6"/>
-      <c r="AZ82" s="5"/>
-      <c r="BA82" s="6"/>
-      <c r="BB82" s="5"/>
-      <c r="BC82" s="6"/>
-      <c r="BD82" s="5"/>
-      <c r="BE82" s="6"/>
-      <c r="BF82" s="5"/>
-      <c r="BG82" s="6"/>
-      <c r="BH82" s="5"/>
-      <c r="BI82" s="6"/>
-      <c r="BJ82" s="5"/>
-      <c r="BK82" s="6"/>
-      <c r="BL82" s="5"/>
-      <c r="BM82" s="6"/>
-      <c r="BN82" s="5"/>
-    </row>
-    <row r="83" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:65" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="5"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="5"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="5"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="5"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="5"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="5"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="5"/>
+      <c r="AD78" s="6"/>
+      <c r="AE78" s="5"/>
+      <c r="AF78" s="6"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="5"/>
+      <c r="AJ78" s="6"/>
+      <c r="AK78" s="5"/>
+      <c r="AL78" s="6"/>
+      <c r="AM78" s="5"/>
+      <c r="AN78" s="6"/>
+      <c r="AO78" s="5"/>
+      <c r="AP78" s="6"/>
+      <c r="AQ78" s="5"/>
+      <c r="AR78" s="6"/>
+      <c r="AS78" s="5"/>
+      <c r="AT78" s="6"/>
+      <c r="AU78" s="5"/>
+      <c r="AV78" s="6"/>
+      <c r="AW78" s="5"/>
+      <c r="AX78" s="6"/>
+      <c r="AY78" s="5"/>
+      <c r="AZ78" s="6"/>
+      <c r="BA78" s="5"/>
+      <c r="BB78" s="6"/>
+      <c r="BC78" s="5"/>
+      <c r="BD78" s="6"/>
+      <c r="BE78" s="5"/>
+      <c r="BF78" s="6"/>
+      <c r="BG78" s="5"/>
+      <c r="BH78" s="6"/>
+      <c r="BI78" s="5"/>
+      <c r="BJ78" s="6"/>
+      <c r="BK78" s="5"/>
+      <c r="BL78" s="6"/>
+      <c r="BM78" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F291FDB3-EB63-43F8-9B77-CA56B866C6F3}">
+  <dimension ref="A1:AW158"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.58203125" defaultRowHeight="27.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="4.58203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="J9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="19" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+    </row>
+    <row r="21" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="26" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="5"/>
+    </row>
+    <row r="27" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
+    </row>
+    <row r="28" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="5"/>
+    </row>
+    <row r="29" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
+    </row>
+    <row r="30" spans="1:29" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="5"/>
+    </row>
+    <row r="83" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B83" s="14"/>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
@@ -6145,7 +6160,7 @@
       <c r="AV83" s="14"/>
       <c r="AW83" s="14"/>
     </row>
-    <row r="84" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B84" s="14"/>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
@@ -6195,7 +6210,7 @@
       <c r="AV84" s="14"/>
       <c r="AW84" s="14"/>
     </row>
-    <row r="85" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B85" s="14"/>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
@@ -6245,7 +6260,7 @@
       <c r="AV85" s="14"/>
       <c r="AW85" s="14"/>
     </row>
-    <row r="86" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B86" s="14"/>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
@@ -6295,7 +6310,7 @@
       <c r="AV86" s="14"/>
       <c r="AW86" s="14"/>
     </row>
-    <row r="87" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B87" s="14"/>
       <c r="C87" s="14"/>
       <c r="D87" s="14"/>
@@ -6345,7 +6360,7 @@
       <c r="AV87" s="14"/>
       <c r="AW87" s="14"/>
     </row>
-    <row r="88" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B88" s="14"/>
       <c r="C88" s="14"/>
       <c r="D88" s="14"/>
@@ -6395,7 +6410,7 @@
       <c r="AV88" s="14"/>
       <c r="AW88" s="14"/>
     </row>
-    <row r="89" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B89" s="14"/>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
@@ -6445,7 +6460,7 @@
       <c r="AV89" s="14"/>
       <c r="AW89" s="14"/>
     </row>
-    <row r="90" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B90" s="14"/>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
@@ -6495,7 +6510,7 @@
       <c r="AV90" s="14"/>
       <c r="AW90" s="14"/>
     </row>
-    <row r="91" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B91" s="14"/>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
@@ -6545,7 +6560,7 @@
       <c r="AV91" s="14"/>
       <c r="AW91" s="14"/>
     </row>
-    <row r="92" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B92" s="14"/>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
@@ -6595,7 +6610,7 @@
       <c r="AV92" s="14"/>
       <c r="AW92" s="14"/>
     </row>
-    <row r="93" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B93" s="14"/>
       <c r="C93" s="14"/>
       <c r="D93" s="14"/>
@@ -6645,7 +6660,7 @@
       <c r="AV93" s="14"/>
       <c r="AW93" s="14"/>
     </row>
-    <row r="94" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B94" s="14"/>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
@@ -6695,7 +6710,7 @@
       <c r="AV94" s="14"/>
       <c r="AW94" s="14"/>
     </row>
-    <row r="95" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B95" s="14"/>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
@@ -6745,7 +6760,7 @@
       <c r="AV95" s="14"/>
       <c r="AW95" s="14"/>
     </row>
-    <row r="96" spans="2:66" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:49" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B96" s="14"/>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
@@ -9901,7 +9916,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8EF6D8-C0B3-4764-92FD-D662426965E4}">
   <dimension ref="A1:F211"/>
   <sheetViews>
